--- a/FiveInARow/ClientTestList.xlsx
+++ b/FiveInARow/ClientTestList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>MatchView</t>
   </si>
@@ -138,7 +138,10 @@
     <t>TurnProcesser 重构</t>
   </si>
   <si>
-    <t>Disconnect recory</t>
+    <t>countdown ui 半透明，位置往上，背景变成椭圆</t>
+  </si>
+  <si>
+    <t>chessboard bg pos</t>
   </si>
 </sst>
 </file>
@@ -1242,10 +1245,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1334,7 +1337,7 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1369,8 +1372,13 @@
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
